--- a/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
+++ b/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610D698F-3AD8-4099-9938-77817929654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="131">
   <si>
     <t>PERIOD</t>
   </si>
@@ -420,19 +421,19 @@
     <t>9/14,15</t>
   </si>
   <si>
-    <t>SPL(1-0-0)</t>
-  </si>
-  <si>
     <t>UT(0-0-32)</t>
   </si>
   <si>
     <t>10/24,25/2022</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1295,7 +1296,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1339,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1403,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1463,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1529,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1591,7 +1592,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1690,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1749,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1814,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1857,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1932,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2118,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2183,7 +2184,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2242,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2308,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2364,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2439,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2481,7 +2482,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2548,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2603,7 +2604,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2702,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,7 +2765,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2814,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2830,25 +2831,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K215" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K215" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K215" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2860,13 +2862,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2875,14 +2877,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3186,7 +3188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3196,7 +3198,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3204,34 +3206,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A141" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B143" sqref="B143"/>
+      <pane ySplit="3696" topLeftCell="A153" activePane="bottomLeft"/>
+      <selection activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3252,7 +3254,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3272,7 +3274,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3294,7 +3296,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3302,7 +3304,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3315,7 +3317,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3332,7 +3334,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3376,7 +3378,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.63400000000001</v>
+        <v>134.13400000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3386,12 +3388,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.55000000000001</v>
+        <v>133.05000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3411,7 +3413,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>52</v>
       </c>
@@ -3429,7 +3431,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>42370</v>
       </c>
@@ -3453,7 +3455,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>42401</v>
       </c>
@@ -3473,7 +3475,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>42430</v>
       </c>
@@ -3499,7 +3501,7 @@
         <v>42439</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>56</v>
@@ -3521,7 +3523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>57</v>
@@ -3541,7 +3543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -3561,7 +3563,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>42461</v>
       </c>
@@ -3585,7 +3587,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>42491</v>
       </c>
@@ -3609,7 +3611,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>42522</v>
       </c>
@@ -3633,7 +3635,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>42552</v>
       </c>
@@ -3657,7 +3659,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>42583</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>64</v>
@@ -3701,7 +3703,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>42614</v>
       </c>
@@ -3721,7 +3723,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>42644</v>
       </c>
@@ -3747,7 +3749,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>67</v>
@@ -3769,7 +3771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>69</v>
@@ -3791,7 +3793,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>51</v>
@@ -3813,7 +3815,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>71</v>
@@ -3835,7 +3837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>57</v>
@@ -3855,7 +3857,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>42675</v>
       </c>
@@ -3881,7 +3883,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -3901,7 +3903,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>42705</v>
       </c>
@@ -3927,7 +3929,7 @@
         <v>42725</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>74</v>
@@ -3947,7 +3949,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>53</v>
       </c>
@@ -3965,7 +3967,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>42736</v>
       </c>
@@ -3989,7 +3991,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>75</v>
@@ -4009,7 +4011,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>42767</v>
       </c>
@@ -4035,7 +4037,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>51</v>
@@ -4057,7 +4059,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>54</v>
@@ -4077,7 +4079,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>42795</v>
       </c>
@@ -4103,7 +4105,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>51</v>
@@ -4125,7 +4127,7 @@
         <v>42804</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>76</v>
@@ -4145,7 +4147,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="49"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>42826</v>
       </c>
@@ -4169,7 +4171,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>42856</v>
       </c>
@@ -4195,7 +4197,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>51</v>
@@ -4217,7 +4219,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>51</v>
@@ -4239,7 +4241,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>51</v>
@@ -4261,7 +4263,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>78</v>
@@ -4281,7 +4283,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="49"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>42887</v>
       </c>
@@ -4307,7 +4309,7 @@
         <v>42894</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>57</v>
@@ -4327,7 +4329,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>57</v>
@@ -4347,7 +4349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>82</v>
@@ -4367,7 +4369,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>42917</v>
       </c>
@@ -4391,7 +4393,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>51</v>
@@ -4413,7 +4415,7 @@
         <v>42951</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>42948</v>
       </c>
@@ -4439,7 +4441,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>85</v>
@@ -4459,7 +4461,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>51</v>
@@ -4481,7 +4483,7 @@
         <v>43003</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>42979</v>
       </c>
@@ -4505,7 +4507,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>51</v>
@@ -4527,7 +4529,7 @@
         <v>43017</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>43009</v>
       </c>
@@ -4553,7 +4555,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>51</v>
@@ -4575,7 +4577,7 @@
         <v>42993</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>54</v>
@@ -4595,7 +4597,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="49"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>43040</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>43054</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>51</v>
@@ -4643,7 +4645,7 @@
         <v>43056</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>43070</v>
       </c>
@@ -4663,7 +4665,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="48" t="s">
         <v>45</v>
       </c>
@@ -4681,7 +4683,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>43101</v>
       </c>
@@ -4701,7 +4703,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>43132</v>
       </c>
@@ -4727,7 +4729,7 @@
         <v>43121</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>43160</v>
       </c>
@@ -4753,7 +4755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>88</v>
@@ -4775,7 +4777,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>43191</v>
       </c>
@@ -4795,7 +4797,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>43221</v>
       </c>
@@ -4821,7 +4823,7 @@
         <v>43227</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="15" t="s">
         <v>56</v>
@@ -4843,7 +4845,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="15" t="s">
         <v>57</v>
@@ -4863,7 +4865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="15" t="s">
         <v>92</v>
@@ -4883,7 +4885,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="50"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>43252</v>
       </c>
@@ -4907,7 +4909,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>43282</v>
       </c>
@@ -4933,7 +4935,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>96</v>
@@ -4953,7 +4955,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>43313</v>
       </c>
@@ -4977,7 +4979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>43344</v>
       </c>
@@ -5003,7 +5005,7 @@
         <v>43356</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>56</v>
@@ -5025,7 +5027,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>43374</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>43381</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>71</v>
@@ -5073,7 +5075,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>51</v>
@@ -5095,7 +5097,7 @@
         <v>43390</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>43405</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>51</v>
@@ -5143,7 +5145,7 @@
         <v>43425</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>43435</v>
       </c>
@@ -5167,7 +5169,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>46</v>
       </c>
@@ -5185,7 +5187,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>43466</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>102</v>
@@ -5231,7 +5233,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>43497</v>
       </c>
@@ -5257,7 +5259,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>43525</v>
       </c>
@@ -5281,7 +5283,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>43556</v>
       </c>
@@ -5307,7 +5309,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>54</v>
@@ -5327,7 +5329,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>43586</v>
       </c>
@@ -5353,7 +5355,7 @@
         <v>43608</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>57</v>
@@ -5373,7 +5375,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>57</v>
@@ -5393,7 +5395,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>78</v>
@@ -5413,7 +5415,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>43617</v>
       </c>
@@ -5433,7 +5435,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>43647</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>57</v>
@@ -5479,7 +5481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>51</v>
@@ -5501,7 +5503,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>56</v>
@@ -5523,7 +5525,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>43678</v>
       </c>
@@ -5547,7 +5549,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>43709</v>
       </c>
@@ -5571,7 +5573,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>43739</v>
       </c>
@@ -5597,7 +5599,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>51</v>
@@ -5619,7 +5621,7 @@
         <v>43768</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>56</v>
@@ -5641,7 +5643,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>111</v>
@@ -5661,7 +5663,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>43770</v>
       </c>
@@ -5685,7 +5687,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>43800</v>
       </c>
@@ -5711,7 +5713,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>114</v>
@@ -5731,7 +5733,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="48" t="s">
         <v>47</v>
       </c>
@@ -5749,7 +5751,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>43831</v>
       </c>
@@ -5773,7 +5775,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>43862</v>
       </c>
@@ -5793,7 +5795,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>43891</v>
       </c>
@@ -5813,7 +5815,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>43922</v>
       </c>
@@ -5833,7 +5835,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>43952</v>
       </c>
@@ -5853,7 +5855,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>43983</v>
       </c>
@@ -5873,7 +5875,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>44013</v>
       </c>
@@ -5893,7 +5895,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>44044</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>44075</v>
       </c>
@@ -5937,7 +5939,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>44105</v>
       </c>
@@ -5963,7 +5965,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>44136</v>
       </c>
@@ -5983,7 +5985,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>44166</v>
       </c>
@@ -6007,7 +6009,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="48" t="s">
         <v>48</v>
       </c>
@@ -6025,7 +6027,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>44197</v>
       </c>
@@ -6051,7 +6053,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>44228</v>
       </c>
@@ -6077,7 +6079,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>44256</v>
       </c>
@@ -6103,7 +6105,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>44287</v>
       </c>
@@ -6123,7 +6125,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>44317</v>
       </c>
@@ -6143,7 +6145,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>44348</v>
       </c>
@@ -6169,7 +6171,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>44378</v>
       </c>
@@ -6189,7 +6191,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>44409</v>
       </c>
@@ -6209,7 +6211,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>44440</v>
       </c>
@@ -6229,7 +6231,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>44470</v>
       </c>
@@ -6249,7 +6251,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>44501</v>
       </c>
@@ -6275,7 +6277,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>44531</v>
       </c>
@@ -6295,7 +6297,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="48" t="s">
         <v>49</v>
       </c>
@@ -6313,7 +6315,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>44562</v>
       </c>
@@ -6339,7 +6341,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>44593</v>
       </c>
@@ -6359,7 +6361,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>44621</v>
       </c>
@@ -6379,7 +6381,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>44652</v>
       </c>
@@ -6403,7 +6405,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>44682</v>
       </c>
@@ -6423,7 +6425,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>44713</v>
       </c>
@@ -6449,7 +6451,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>44743</v>
       </c>
@@ -6475,7 +6477,7 @@
         <v>44769</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>57</v>
@@ -6495,7 +6497,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>44774</v>
       </c>
@@ -6515,7 +6517,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>44805</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>44835</v>
       </c>
@@ -6564,10 +6566,10 @@
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
       <c r="K151" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>51</v>
@@ -6589,7 +6591,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>44866</v>
       </c>
@@ -6615,7 +6617,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>44896</v>
       </c>
@@ -6641,10 +6643,10 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="39">
@@ -6661,7 +6663,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="49"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="48" t="s">
         <v>50</v>
       </c>
@@ -6679,7 +6681,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>44927</v>
       </c>
@@ -6699,7 +6701,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>44958</v>
       </c>
@@ -6719,7 +6721,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>44986</v>
       </c>
@@ -6745,7 +6747,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>45017</v>
       </c>
@@ -6765,7 +6767,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>45047</v>
       </c>
@@ -6785,20 +6787,22 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>45078</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C162" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="C162" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D162" s="39"/>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
-      <c r="G162" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G162" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H162" s="39"/>
       <c r="I162" s="9"/>
@@ -6807,29 +6811,33 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>45108</v>
       </c>
       <c r="B163" s="20"/>
-      <c r="C163" s="13"/>
+      <c r="C163" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D163" s="39"/>
       <c r="E163" s="9"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G163" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>45139</v>
       </c>
-      <c r="B164" s="20"/>
+      <c r="B164" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C164" s="13"/>
       <c r="D164" s="39"/>
       <c r="E164" s="9"/>
@@ -6841,9 +6849,11 @@
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="20"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K164" s="49">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>45170</v>
       </c>
@@ -6861,7 +6871,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>45200</v>
       </c>
@@ -6879,7 +6889,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>45231</v>
       </c>
@@ -6897,7 +6907,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>45261</v>
       </c>
@@ -6915,7 +6925,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>45292</v>
       </c>
@@ -6933,7 +6943,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>45323</v>
       </c>
@@ -6951,7 +6961,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>45352</v>
       </c>
@@ -6969,7 +6979,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>45383</v>
       </c>
@@ -6987,7 +6997,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>45413</v>
       </c>
@@ -7005,7 +7015,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>45444</v>
       </c>
@@ -7023,7 +7033,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>45474</v>
       </c>
@@ -7041,7 +7051,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>45505</v>
       </c>
@@ -7059,7 +7069,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>45536</v>
       </c>
@@ -7077,7 +7087,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>45566</v>
       </c>
@@ -7095,7 +7105,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>45597</v>
       </c>
@@ -7113,7 +7123,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>45627</v>
       </c>
@@ -7131,7 +7141,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>45658</v>
       </c>
@@ -7149,7 +7159,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>45689</v>
       </c>
@@ -7167,7 +7177,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>45717</v>
       </c>
@@ -7185,7 +7195,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>45748</v>
       </c>
@@ -7203,7 +7213,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>45778</v>
       </c>
@@ -7221,7 +7231,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>45809</v>
       </c>
@@ -7239,7 +7249,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>45839</v>
       </c>
@@ -7257,7 +7267,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>45870</v>
       </c>
@@ -7275,7 +7285,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>45901</v>
       </c>
@@ -7293,7 +7303,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>45931</v>
       </c>
@@ -7311,7 +7321,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>45962</v>
       </c>
@@ -7329,7 +7339,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>45992</v>
       </c>
@@ -7347,7 +7357,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>46023</v>
       </c>
@@ -7365,7 +7375,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>46054</v>
       </c>
@@ -7383,7 +7393,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>46082</v>
       </c>
@@ -7401,7 +7411,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>46113</v>
       </c>
@@ -7419,7 +7429,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>46143</v>
       </c>
@@ -7437,7 +7447,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>46174</v>
       </c>
@@ -7455,7 +7465,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>46204</v>
       </c>
@@ -7473,7 +7483,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>46235</v>
       </c>
@@ -7491,7 +7501,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>46266</v>
       </c>
@@ -7509,7 +7519,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>46296</v>
       </c>
@@ -7527,7 +7537,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>46327</v>
       </c>
@@ -7545,7 +7555,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>46357</v>
       </c>
@@ -7563,7 +7573,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>46388</v>
       </c>
@@ -7581,7 +7591,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>46419</v>
       </c>
@@ -7599,7 +7609,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>46447</v>
       </c>
@@ -7617,7 +7627,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7633,7 +7643,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7649,7 +7659,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -7665,7 +7675,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -7681,7 +7691,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -7697,7 +7707,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -7713,7 +7723,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -7729,7 +7739,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="41"/>
       <c r="B215" s="15"/>
       <c r="C215" s="42"/>
@@ -7760,10 +7770,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7786,29 +7796,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -7821,7 +7831,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7850,7 +7860,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>91.843000000000004</v>
       </c>
@@ -7880,17 +7890,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7911,7 +7924,11 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>267.18400000000003</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7938,7 +7955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7964,7 +7981,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7990,7 +8007,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8016,7 +8033,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8042,7 +8059,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8068,7 +8085,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8094,7 +8111,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8120,7 +8137,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8140,7 +8157,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8160,7 +8177,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8180,7 +8197,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8201,7 +8218,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8222,7 +8239,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8243,7 +8260,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8264,7 +8281,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8285,7 +8302,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8306,7 +8323,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8327,7 +8344,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8348,7 +8365,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8369,7 +8386,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8390,7 +8407,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8411,7 +8428,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8432,7 +8449,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8453,7 +8470,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8474,7 +8491,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8495,7 +8512,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8516,7 +8533,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8537,7 +8554,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8558,7 +8575,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8579,7 +8596,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8600,7 +8617,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8609,7 +8626,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8618,7 +8635,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8627,7 +8644,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8636,7 +8653,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8645,7 +8662,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8654,7 +8671,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8663,7 +8680,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8672,7 +8689,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8681,7 +8698,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8690,7 +8707,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8699,7 +8716,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8708,7 +8725,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8717,7 +8734,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8726,7 +8743,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8735,7 +8752,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8744,7 +8761,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8753,7 +8770,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8762,7 +8779,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8771,7 +8788,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8780,7 +8797,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8789,7 +8806,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8798,7 +8815,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8807,7 +8824,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8816,7 +8833,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8825,7 +8842,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8834,7 +8851,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8843,7 +8860,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8852,7 +8869,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8861,7 +8878,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
+++ b/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="135">
   <si>
     <t>PERIOD</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>10/20,23,24/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-2-34)</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1307,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1350,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1414,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1474,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1540,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1603,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1695,7 +1701,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1760,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1825,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1868,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1943,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,7 +2129,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2195,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2253,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2319,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2369,7 +2375,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2444,7 +2450,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2493,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2559,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2609,7 +2615,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2713,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2770,7 +2776,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,8 +2842,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K215" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K215"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K217" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K217"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3215,12 +3221,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K215"/>
+  <dimension ref="A2:K217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A153" activePane="bottomLeft"/>
       <selection activeCell="K8" sqref="K8"/>
-      <selection pane="bottomLeft" activeCell="K166" sqref="K166"/>
+      <selection pane="bottomLeft" activeCell="K173" sqref="K173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,7 +3389,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.63400000000001</v>
+        <v>137.06300000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3393,7 +3399,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>135.55000000000001</v>
+        <v>139.30000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6887,15 +6893,17 @@
       <c r="B166" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C166" s="13"/>
+      <c r="C166" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D166" s="39">
         <v>3</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
-      <c r="G166" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G166" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H166" s="39"/>
       <c r="I166" s="9"/>
@@ -6905,12 +6913,14 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B167" s="20"/>
+      <c r="A167" s="40"/>
+      <c r="B167" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="C167" s="13"/>
-      <c r="D167" s="39"/>
+      <c r="D167" s="39">
+        <v>0.32100000000000001</v>
+      </c>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
       <c r="G167" s="13" t="str">
@@ -6924,16 +6934,18 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B168" s="20"/>
-      <c r="C168" s="13"/>
+      <c r="C168" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D168" s="39"/>
       <c r="E168" s="9"/>
       <c r="F168" s="20"/>
-      <c r="G168" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G168" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H168" s="39"/>
       <c r="I168" s="9"/>
@@ -6942,16 +6954,18 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B169" s="20"/>
-      <c r="C169" s="13"/>
+      <c r="C169" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D169" s="39"/>
       <c r="E169" s="9"/>
       <c r="F169" s="20"/>
-      <c r="G169" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G169" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H169" s="39"/>
       <c r="I169" s="9"/>
@@ -6959,8 +6973,8 @@
       <c r="K169" s="20"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="40">
-        <v>45323</v>
+      <c r="A170" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -6978,7 +6992,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -6996,7 +7010,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -7014,7 +7028,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -7032,7 +7046,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -7050,7 +7064,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -7068,7 +7082,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -7086,7 +7100,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7104,7 +7118,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -7122,7 +7136,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -7140,7 +7154,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -7158,7 +7172,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -7176,7 +7190,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -7194,7 +7208,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -7212,7 +7226,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -7230,7 +7244,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7248,7 +7262,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7266,7 +7280,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7284,7 +7298,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -7302,7 +7316,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -7320,7 +7334,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -7338,7 +7352,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -7356,7 +7370,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -7374,7 +7388,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7392,7 +7406,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7410,7 +7424,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7428,7 +7442,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -7446,7 +7460,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -7464,7 +7478,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -7482,7 +7496,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7500,7 +7514,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7518,7 +7532,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7536,7 +7550,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7554,7 +7568,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -7572,7 +7586,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -7590,7 +7604,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -7608,7 +7622,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -7626,7 +7640,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -7643,7 +7657,9 @@
       <c r="K207" s="20"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="40"/>
+      <c r="A208" s="40">
+        <v>46419</v>
+      </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
       <c r="D208" s="39"/>
@@ -7659,7 +7675,9 @@
       <c r="K208" s="20"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="40"/>
+      <c r="A209" s="40">
+        <v>46447</v>
+      </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
       <c r="D209" s="39"/>
@@ -7755,20 +7773,52 @@
       <c r="K214" s="20"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="41"/>
-      <c r="B215" s="15"/>
-      <c r="C215" s="42"/>
-      <c r="D215" s="43"/>
+      <c r="A215" s="40"/>
+      <c r="B215" s="20"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="39"/>
       <c r="E215" s="9"/>
-      <c r="F215" s="15"/>
-      <c r="G215" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H215" s="43"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H215" s="39"/>
       <c r="I215" s="9"/>
-      <c r="J215" s="12"/>
-      <c r="K215" s="15"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="20"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="40"/>
+      <c r="B216" s="20"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="39"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H216" s="39"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="11"/>
+      <c r="K216" s="20"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="41"/>
+      <c r="B217" s="15"/>
+      <c r="C217" s="42"/>
+      <c r="D217" s="43"/>
+      <c r="E217" s="9"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H217" s="43"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="12"/>
+      <c r="K217" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7816,7 +7866,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7886,14 +7936,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.7000000000000004E-2</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -7942,7 +7992,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>269.18400000000003</v>
+        <v>276.36300000000006</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
+++ b/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
   <si>
     <t>PERIOD</t>
   </si>
@@ -439,6 +439,21 @@
   </si>
   <si>
     <t>UT(0-2-34)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>7/25,28/2023</t>
+  </si>
+  <si>
+    <t>UT(0-7-45)</t>
+  </si>
+  <si>
+    <t>UT(0-0-55)</t>
   </si>
 </sst>
 </file>
@@ -2842,8 +2857,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K217" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K217"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K221" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K221"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3221,7 +3236,7 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K217"/>
+  <dimension ref="A2:K221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A153" activePane="bottomLeft"/>
@@ -3389,7 +3404,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>137.06300000000002</v>
+        <v>128.47900000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6696,11 +6711,15 @@
       <c r="A157" s="40">
         <v>44927</v>
       </c>
-      <c r="B157" s="20"/>
+      <c r="B157" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="C157" s="13">
         <v>1.25</v>
       </c>
-      <c r="D157" s="39"/>
+      <c r="D157" s="39">
+        <v>1</v>
+      </c>
       <c r="E157" s="9"/>
       <c r="F157" s="20"/>
       <c r="G157" s="13">
@@ -6710,7 +6729,9 @@
       <c r="H157" s="39"/>
       <c r="I157" s="9"/>
       <c r="J157" s="11"/>
-      <c r="K157" s="20"/>
+      <c r="K157" s="49">
+        <v>44932</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
@@ -6759,34 +6780,38 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B160" s="20"/>
-      <c r="C160" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D160" s="39"/>
+      <c r="A160" s="40"/>
+      <c r="B160" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E160" s="9"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H160" s="39"/>
       <c r="I160" s="9"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="20"/>
+      <c r="K160" s="49"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B161" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
-      <c r="D161" s="39"/>
+      <c r="D161" s="39">
+        <v>0.115</v>
+      </c>
       <c r="E161" s="9"/>
       <c r="F161" s="20"/>
       <c r="G161" s="13">
@@ -6800,15 +6825,17 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
       </c>
-      <c r="D162" s="39"/>
+      <c r="D162" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E162" s="9"/>
       <c r="F162" s="20"/>
       <c r="G162" s="13">
@@ -6818,15 +6845,15 @@
       <c r="H162" s="39"/>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="49">
-        <v>45090</v>
-      </c>
+      <c r="K162" s="20"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B163" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C163" s="13">
         <v>1.25</v>
       </c>
@@ -6840,41 +6867,43 @@
       <c r="H163" s="39"/>
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
-      <c r="K163" s="20"/>
+      <c r="K163" s="49">
+        <v>45090</v>
+      </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="40">
-        <v>45139</v>
-      </c>
+      <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C164" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D164" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="39">
+        <v>1.5</v>
+      </c>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H164" s="39"/>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="49">
-        <v>45160</v>
-      </c>
+      <c r="K164" s="49"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B165" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="C165" s="13">
         <v>1.25</v>
       </c>
-      <c r="D165" s="39"/>
+      <c r="D165" s="39">
+        <v>2</v>
+      </c>
       <c r="E165" s="9"/>
       <c r="F165" s="20"/>
       <c r="G165" s="13">
@@ -6884,77 +6913,79 @@
       <c r="H165" s="39"/>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="20"/>
+      <c r="K165" s="20" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C166" s="13">
-        <v>1.25</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C166" s="13"/>
       <c r="D166" s="39">
-        <v>3</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
-      <c r="G166" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H166" s="39"/>
       <c r="I166" s="9"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="K166" s="20"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
+      <c r="A167" s="40">
+        <v>45139</v>
+      </c>
       <c r="B167" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C167" s="13"/>
-      <c r="D167" s="39">
-        <v>0.32100000000000001</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C167" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D167" s="39"/>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
-      <c r="G167" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G167" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H167" s="39"/>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="20"/>
+      <c r="K167" s="49">
+        <v>45160</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B168" s="20"/>
-      <c r="C168" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D168" s="39"/>
+      <c r="A168" s="40"/>
+      <c r="B168" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="39">
+        <v>1</v>
+      </c>
       <c r="E168" s="9"/>
       <c r="F168" s="20"/>
-      <c r="G168" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G168" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H168" s="39"/>
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="20"/>
+      <c r="K168" s="49">
+        <v>45152</v>
+      </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -6973,30 +7004,40 @@
       <c r="K169" s="20"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B170" s="20"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="39"/>
+      <c r="A170" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C170" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D170" s="39">
+        <v>3</v>
+      </c>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G170" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H170" s="39"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="20"/>
+      <c r="K170" s="20" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B171" s="20"/>
+      <c r="A171" s="40"/>
+      <c r="B171" s="20" t="s">
+        <v>134</v>
+      </c>
       <c r="C171" s="13"/>
-      <c r="D171" s="39"/>
+      <c r="D171" s="39">
+        <v>0.32100000000000001</v>
+      </c>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
       <c r="G171" s="13" t="str">
@@ -7010,16 +7051,18 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B172" s="20"/>
-      <c r="C172" s="13"/>
+      <c r="C172" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D172" s="39"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G172" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H172" s="39"/>
       <c r="I172" s="9"/>
@@ -7028,25 +7071,33 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B173" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D173" s="39">
+        <v>1</v>
+      </c>
       <c r="E173" s="9"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G173" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H173" s="39"/>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="20"/>
+      <c r="K173" s="49">
+        <v>45267</v>
+      </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="40">
-        <v>45383</v>
+      <c r="A174" s="48" t="s">
+        <v>133</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -7064,7 +7115,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -7082,7 +7133,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -7100,7 +7151,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -7118,7 +7169,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -7136,7 +7187,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -7154,7 +7205,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -7172,7 +7223,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -7190,7 +7241,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -7208,7 +7259,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -7226,7 +7277,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -7244,7 +7295,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -7262,7 +7313,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7280,7 +7331,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7298,7 +7349,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -7316,7 +7367,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -7334,7 +7385,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -7352,7 +7403,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -7370,7 +7421,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -7388,7 +7439,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7406,7 +7457,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7424,7 +7475,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>46023</v>
+        <v>45901</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7442,7 +7493,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>46054</v>
+        <v>45931</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -7460,7 +7511,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>46082</v>
+        <v>45962</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -7478,7 +7529,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>46113</v>
+        <v>45992</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -7496,7 +7547,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>46143</v>
+        <v>46023</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7514,7 +7565,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>46174</v>
+        <v>46054</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7532,7 +7583,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <v>46204</v>
+        <v>46082</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -7550,7 +7601,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>46235</v>
+        <v>46113</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7568,7 +7619,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>46266</v>
+        <v>46143</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -7586,7 +7637,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>46296</v>
+        <v>46174</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -7604,7 +7655,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
-        <v>46327</v>
+        <v>46204</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -7622,7 +7673,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
-        <v>46357</v>
+        <v>46235</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -7640,7 +7691,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <v>46388</v>
+        <v>46266</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -7658,7 +7709,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
-        <v>46419</v>
+        <v>46296</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -7676,7 +7727,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
-        <v>46447</v>
+        <v>46327</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -7693,7 +7744,9 @@
       <c r="K209" s="20"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="40"/>
+      <c r="A210" s="40">
+        <v>46357</v>
+      </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
       <c r="D210" s="39"/>
@@ -7709,7 +7762,9 @@
       <c r="K210" s="20"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="40"/>
+      <c r="A211" s="40">
+        <v>46388</v>
+      </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
       <c r="D211" s="39"/>
@@ -7725,7 +7780,9 @@
       <c r="K211" s="20"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="40"/>
+      <c r="A212" s="40">
+        <v>46419</v>
+      </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
       <c r="D212" s="39"/>
@@ -7741,7 +7798,9 @@
       <c r="K212" s="20"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="40"/>
+      <c r="A213" s="40">
+        <v>46447</v>
+      </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
       <c r="D213" s="39"/>
@@ -7805,20 +7864,84 @@
       <c r="K216" s="20"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="41"/>
-      <c r="B217" s="15"/>
-      <c r="C217" s="42"/>
-      <c r="D217" s="43"/>
+      <c r="A217" s="40"/>
+      <c r="B217" s="20"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="39"/>
       <c r="E217" s="9"/>
-      <c r="F217" s="15"/>
-      <c r="G217" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H217" s="43"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H217" s="39"/>
       <c r="I217" s="9"/>
-      <c r="J217" s="12"/>
-      <c r="K217" s="15"/>
+      <c r="J217" s="11"/>
+      <c r="K217" s="20"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="40"/>
+      <c r="B218" s="20"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="39"/>
+      <c r="E218" s="9"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H218" s="39"/>
+      <c r="I218" s="9"/>
+      <c r="J218" s="11"/>
+      <c r="K218" s="20"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="40"/>
+      <c r="B219" s="20"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="39"/>
+      <c r="E219" s="9"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H219" s="39"/>
+      <c r="I219" s="9"/>
+      <c r="J219" s="11"/>
+      <c r="K219" s="20"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="40"/>
+      <c r="B220" s="20"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="39"/>
+      <c r="E220" s="9"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H220" s="39"/>
+      <c r="I220" s="9"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="20"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="41"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="42"/>
+      <c r="D221" s="43"/>
+      <c r="E221" s="9"/>
+      <c r="F221" s="15"/>
+      <c r="G221" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H221" s="43"/>
+      <c r="I221" s="9"/>
+      <c r="J221" s="12"/>
+      <c r="K221" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7932,18 +8055,14 @@
       <c r="B3" s="11">
         <v>107.3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
+      <c r="D3"/>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>34</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.32100000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -7992,7 +8111,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>276.36300000000006</v>
+        <v>267.77900000000005</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
+++ b/REGULAR/ACCOUNTING/ANGCAYA, JOHN.xlsx
@@ -1322,7 +1322,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,7 +1365,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1429,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1555,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1618,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +1716,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1775,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1840,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1883,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1958,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,7 +2144,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2210,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +2268,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2334,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2465,7 +2465,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2508,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2574,7 +2574,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2630,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2728,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2791,7 +2791,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3241,7 +3241,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A153" activePane="bottomLeft"/>
       <selection activeCell="K8" sqref="K8"/>
-      <selection pane="bottomLeft" activeCell="K173" sqref="K173"/>
+      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3404,7 +3404,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.47900000000004</v>
+        <v>129.72900000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3414,7 +3414,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>139.30000000000001</v>
+        <v>140.55000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7118,13 +7118,15 @@
         <v>45292</v>
       </c>
       <c r="B175" s="20"/>
-      <c r="C175" s="13"/>
+      <c r="C175" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D175" s="39"/>
       <c r="E175" s="9"/>
       <c r="F175" s="20"/>
-      <c r="G175" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G175" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H175" s="39"/>
       <c r="I175" s="9"/>
@@ -7989,7 +7991,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8111,7 +8113,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>267.77900000000005</v>
+        <v>270.27900000000005</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
